--- a/curvas_de_propocao/Lula_ind_prop.xlsx
+++ b/curvas_de_propocao/Lula_ind_prop.xlsx
@@ -642,7 +642,7 @@
         <v>2008</v>
       </c>
       <c r="B26" t="n">
-        <v>0.001534585536324127</v>
+        <v>0.001511480552529635</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>2009</v>
       </c>
       <c r="B27" t="n">
-        <v>0.01966931764453023</v>
+        <v>0.01895573521514889</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>2010</v>
       </c>
       <c r="B28" t="n">
-        <v>0.01521387315878126</v>
+        <v>0.01416865093105791</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>2011</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1381494957566979</v>
+        <v>0.1248498437406416</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>2012</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1289576349107522</v>
+        <v>0.1131093679532326</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>2013</v>
       </c>
       <c r="B31" t="n">
-        <v>0.04760773404796154</v>
+        <v>0.04041207260222202</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>2014</v>
       </c>
       <c r="B32" t="n">
-        <v>0.05797584221437523</v>
+        <v>0.04775347400446091</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>2015</v>
       </c>
       <c r="B33" t="n">
-        <v>0.01496469633531661</v>
+        <v>0.01198651112929893</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>2016</v>
       </c>
       <c r="B34" t="n">
-        <v>1.342967666593679e-05</v>
+        <v>1.047804174689047e-05</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>2017</v>
       </c>
       <c r="B35" t="n">
-        <v>0.04045635662989436</v>
+        <v>0.03070423546752582</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>2018</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0249050978643993</v>
+        <v>0.01838250216859989</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>2019</v>
       </c>
       <c r="B37" t="n">
-        <v>0.02131127073111725</v>
+        <v>0.01531720264671351</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>2020</v>
       </c>
       <c r="B38" t="n">
-        <v>0.007527953681155355</v>
+        <v>0.005277169780007211</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>2021</v>
       </c>
       <c r="B39" t="n">
-        <v>0.01339880055365404</v>
+        <v>0.009174553577178153</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>2022</v>
       </c>
       <c r="B40" t="n">
-        <v>0.00695652226688858</v>
+        <v>0.004659112663316726</v>
       </c>
     </row>
   </sheetData>

--- a/curvas_de_propocao/Lula_ind_prop.xlsx
+++ b/curvas_de_propocao/Lula_ind_prop.xlsx
@@ -642,7 +642,7 @@
         <v>2008</v>
       </c>
       <c r="B26" t="n">
-        <v>0.001511480552529635</v>
+        <v>0.001381602709400935</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>2009</v>
       </c>
       <c r="B27" t="n">
-        <v>0.01895573521514889</v>
+        <v>0.01732369805076459</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>2010</v>
       </c>
       <c r="B28" t="n">
-        <v>0.01416865093105791</v>
+        <v>0.01314147947399593</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>2011</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1248498437406416</v>
+        <v>0.1172313444534554</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>2012</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1131093679532326</v>
+        <v>0.1077125299333799</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>2013</v>
       </c>
       <c r="B31" t="n">
-        <v>0.04041207260222202</v>
+        <v>0.03918849267177592</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>2014</v>
       </c>
       <c r="B32" t="n">
-        <v>0.04775347400446091</v>
+        <v>0.04707230479023593</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>2015</v>
       </c>
       <c r="B33" t="n">
-        <v>0.01198651112929893</v>
+        <v>0.01199405521806703</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>2016</v>
       </c>
       <c r="B34" t="n">
-        <v>1.047804174689047e-05</v>
+        <v>1.063971801494629e-05</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>2017</v>
       </c>
       <c r="B35" t="n">
-        <v>0.03070423546752582</v>
+        <v>0.03170653222054862</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>2018</v>
       </c>
       <c r="B36" t="n">
-        <v>0.01838250216859989</v>
+        <v>0.01931818639853993</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>2019</v>
       </c>
       <c r="B37" t="n">
-        <v>0.01531720264671351</v>
+        <v>0.01635419211121291</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>2020</v>
       </c>
       <c r="B38" t="n">
-        <v>0.005277169780007211</v>
+        <v>0.005718357076663391</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>2021</v>
       </c>
       <c r="B39" t="n">
-        <v>0.009174553577178153</v>
+        <v>0.0100805820723981</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>2022</v>
       </c>
       <c r="B40" t="n">
-        <v>0.004659112663316726</v>
+        <v>0.005186188381725527</v>
       </c>
     </row>
   </sheetData>
